--- a/Solved Problems/Dynamic Programming/Dynamic Programming Problems.xlsx
+++ b/Solved Problems/Dynamic Programming/Dynamic Programming Problems.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\029421793\DSA\Solved Problems\Dynamic Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073DEE43-A913-4BCF-B9BA-533ADCAB8E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63FAFB2-CBB2-440F-B24F-2DD7589CC24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{110FEB9B-D6B5-4B03-B5A6-4A21162A02A7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t xml:space="preserve"> 1) Climbing Stairs </t>
   </si>
@@ -545,7 +545,7 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -601,9 +601,6 @@
       <c r="B5" t="s">
         <v>45</v>
       </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -651,13 +648,25 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
